--- a/Ganttchart.NEW.xlsx
+++ b/Ganttchart.NEW.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27612"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27618"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="364" documentId="8_{E28D224A-5405-42EC-8BE8-514F71532952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33659F1F-4B28-465E-95E8-FBB9B90076F9}"/>
+  <xr:revisionPtr revIDLastSave="469" documentId="8_{E28D224A-5405-42EC-8BE8-514F71532952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43437A6C-7C21-4EC1-8D03-00F026290DF0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -330,6 +330,21 @@
   </si>
   <si>
     <t>complete_task.php</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>TestingT11/Acceptance testing</t>
+  </si>
+  <si>
+    <t>Esaa, Adam, Mustafa</t>
+  </si>
+  <si>
+    <t>Unit testing</t>
+  </si>
+  <si>
+    <t>Saif, abdullah Fahim</t>
   </si>
 </sst>
 </file>
@@ -530,7 +545,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -749,6 +764,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,7 +1046,7 @@
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1151,15 +1172,6 @@
     <xf numFmtId="167" fontId="7" fillId="38" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1179,6 +1191,33 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="39" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="40" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyAlignment="1">
@@ -1247,7 +1286,157 @@
     <cellStyle name="Warning Text" xfId="26" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="84">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1944,15 +2133,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="68"/>
-      <tableStyleElement type="headerRow" dxfId="67"/>
-      <tableStyleElement type="totalRow" dxfId="66"/>
-      <tableStyleElement type="firstColumn" dxfId="65"/>
-      <tableStyleElement type="lastColumn" dxfId="64"/>
-      <tableStyleElement type="firstRowStripe" dxfId="63"/>
-      <tableStyleElement type="secondRowStripe" dxfId="62"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="61"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="60"/>
+      <tableStyleElement type="wholeTable" dxfId="83"/>
+      <tableStyleElement type="headerRow" dxfId="82"/>
+      <tableStyleElement type="totalRow" dxfId="81"/>
+      <tableStyleElement type="firstColumn" dxfId="80"/>
+      <tableStyleElement type="lastColumn" dxfId="79"/>
+      <tableStyleElement type="firstRowStripe" dxfId="78"/>
+      <tableStyleElement type="secondRowStripe" dxfId="77"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="76"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="75"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2311,11 +2500,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL51"/>
+  <dimension ref="A1:CG54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -2329,10 +2518,27 @@
     <col min="7" max="7" width="2.7109375" customWidth="1"/>
     <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
     <col min="9" max="64" width="2.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="65" max="65" width="3.140625" customWidth="1"/>
+    <col min="66" max="67" width="3" customWidth="1"/>
+    <col min="68" max="68" width="2.5703125" customWidth="1"/>
+    <col min="69" max="69" width="4" customWidth="1"/>
+    <col min="70" max="70" width="3.140625" customWidth="1"/>
+    <col min="71" max="71" width="2.5703125" customWidth="1"/>
+    <col min="72" max="72" width="2.85546875" customWidth="1"/>
+    <col min="73" max="74" width="3" customWidth="1"/>
+    <col min="75" max="75" width="3.85546875" customWidth="1"/>
+    <col min="76" max="77" width="3.7109375" customWidth="1"/>
+    <col min="78" max="78" width="3.42578125" customWidth="1"/>
+    <col min="79" max="79" width="3.7109375" customWidth="1"/>
+    <col min="80" max="80" width="3.28515625" customWidth="1"/>
+    <col min="81" max="81" width="3.5703125" customWidth="1"/>
+    <col min="82" max="82" width="3.7109375" customWidth="1"/>
+    <col min="83" max="83" width="3.28515625" customWidth="1"/>
+    <col min="84" max="84" width="4" customWidth="1"/>
+    <col min="85" max="85" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1">
+    <row r="1" spans="1:85" ht="30" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2345,7 +2551,7 @@
       <c r="F1" s="13"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1">
+    <row r="2" spans="1:85" ht="30" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -2353,105 +2559,132 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1">
+    <row r="3" spans="1:85" ht="30" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="19"/>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57">
+      <c r="D3" s="62"/>
+      <c r="E3" s="63">
         <v>45342</v>
       </c>
-      <c r="F3" s="57"/>
+      <c r="F3" s="63"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1">
+    <row r="4" spans="1:85" ht="30" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="52">
         <v>45342</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="45">
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="52">
         <v>45349</v>
       </c>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="45">
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="52">
         <v>45356</v>
       </c>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="45">
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="52">
         <v>45363</v>
       </c>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="45">
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="52">
         <v>45370</v>
       </c>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="45">
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="52">
         <v>45377</v>
       </c>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="47"/>
-      <c r="AY4" s="45">
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="52">
         <v>45384</v>
       </c>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="46"/>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="47"/>
-      <c r="BF4" s="45">
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="53"/>
+      <c r="BE4" s="54"/>
+      <c r="BF4" s="52">
         <v>45391</v>
       </c>
-      <c r="BG4" s="46"/>
-      <c r="BH4" s="46"/>
-      <c r="BI4" s="46"/>
-      <c r="BJ4" s="46"/>
-      <c r="BK4" s="46"/>
-      <c r="BL4" s="47"/>
+      <c r="BG4" s="53"/>
+      <c r="BH4" s="53"/>
+      <c r="BI4" s="53"/>
+      <c r="BJ4" s="53"/>
+      <c r="BK4" s="53"/>
+      <c r="BL4" s="54"/>
+      <c r="BM4" s="52">
+        <v>45398</v>
+      </c>
+      <c r="BN4" s="53"/>
+      <c r="BO4" s="53"/>
+      <c r="BP4" s="53"/>
+      <c r="BQ4" s="53"/>
+      <c r="BR4" s="53"/>
+      <c r="BS4" s="54"/>
+      <c r="BT4" s="52">
+        <v>45405</v>
+      </c>
+      <c r="BU4" s="53"/>
+      <c r="BV4" s="53"/>
+      <c r="BW4" s="53"/>
+      <c r="BX4" s="53"/>
+      <c r="BY4" s="53"/>
+      <c r="BZ4" s="54"/>
+      <c r="CA4" s="52">
+        <v>45412</v>
+      </c>
+      <c r="CB4" s="53"/>
+      <c r="CC4" s="53"/>
+      <c r="CD4" s="53"/>
+      <c r="CE4" s="53"/>
+      <c r="CF4" s="53"/>
+      <c r="CG4" s="54"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1">
+    <row r="5" spans="1:85" ht="15" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>9</v>
       </c>
@@ -2684,8 +2917,92 @@
         <f t="shared" si="2"/>
         <v>45397</v>
       </c>
+      <c r="BM5" s="21">
+        <f>BL5+1</f>
+        <v>45398</v>
+      </c>
+      <c r="BN5" s="22">
+        <f>BM5+1</f>
+        <v>45399</v>
+      </c>
+      <c r="BO5" s="22">
+        <f t="shared" ref="BO5" si="3">BN5+1</f>
+        <v>45400</v>
+      </c>
+      <c r="BP5" s="22">
+        <f t="shared" ref="BP5" si="4">BO5+1</f>
+        <v>45401</v>
+      </c>
+      <c r="BQ5" s="22">
+        <f t="shared" ref="BQ5" si="5">BP5+1</f>
+        <v>45402</v>
+      </c>
+      <c r="BR5" s="22">
+        <f t="shared" ref="BR5" si="6">BQ5+1</f>
+        <v>45403</v>
+      </c>
+      <c r="BS5" s="23">
+        <f t="shared" ref="BS5" si="7">BR5+1</f>
+        <v>45404</v>
+      </c>
+      <c r="BT5" s="21">
+        <f>BS5+1</f>
+        <v>45405</v>
+      </c>
+      <c r="BU5" s="22">
+        <f>BT5+1</f>
+        <v>45406</v>
+      </c>
+      <c r="BV5" s="22">
+        <f t="shared" ref="BV5" si="8">BU5+1</f>
+        <v>45407</v>
+      </c>
+      <c r="BW5" s="22">
+        <f t="shared" ref="BW5" si="9">BV5+1</f>
+        <v>45408</v>
+      </c>
+      <c r="BX5" s="22">
+        <f t="shared" ref="BX5" si="10">BW5+1</f>
+        <v>45409</v>
+      </c>
+      <c r="BY5" s="22">
+        <f t="shared" ref="BY5" si="11">BX5+1</f>
+        <v>45410</v>
+      </c>
+      <c r="BZ5" s="23">
+        <f t="shared" ref="BZ5" si="12">BY5+1</f>
+        <v>45411</v>
+      </c>
+      <c r="CA5" s="21">
+        <f>BZ5+1</f>
+        <v>45412</v>
+      </c>
+      <c r="CB5" s="22">
+        <f>CA5+1</f>
+        <v>45413</v>
+      </c>
+      <c r="CC5" s="22">
+        <f t="shared" ref="CC5" si="13">CB5+1</f>
+        <v>45414</v>
+      </c>
+      <c r="CD5" s="22">
+        <f t="shared" ref="CD5" si="14">CC5+1</f>
+        <v>45415</v>
+      </c>
+      <c r="CE5" s="22">
+        <f t="shared" ref="CE5" si="15">CD5+1</f>
+        <v>45416</v>
+      </c>
+      <c r="CF5" s="22">
+        <f t="shared" ref="CF5" si="16">CE5+1</f>
+        <v>45417</v>
+      </c>
+      <c r="CG5" s="23">
+        <f t="shared" ref="CG5" si="17">CF5+1</f>
+        <v>45418</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1">
+    <row r="6" spans="1:85" ht="30" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -2709,231 +3026,315 @@
         <v>16</v>
       </c>
       <c r="I6" s="9" t="str">
-        <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6" si="18">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="J6" s="9" t="str">
-        <f t="shared" ref="J6:AR6" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
+        <f t="shared" ref="J6:AR6" si="19">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>W</v>
       </c>
       <c r="K6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>T</v>
       </c>
       <c r="L6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>F</v>
       </c>
       <c r="M6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>S</v>
       </c>
       <c r="N6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>S</v>
       </c>
       <c r="O6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>M</v>
       </c>
       <c r="P6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>T</v>
       </c>
       <c r="Q6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>W</v>
       </c>
       <c r="R6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>T</v>
       </c>
       <c r="S6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>F</v>
       </c>
       <c r="T6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>S</v>
       </c>
       <c r="U6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>S</v>
       </c>
       <c r="V6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>M</v>
       </c>
       <c r="W6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>T</v>
       </c>
       <c r="X6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>W</v>
       </c>
       <c r="Y6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>T</v>
       </c>
       <c r="Z6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>F</v>
       </c>
       <c r="AA6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>S</v>
       </c>
       <c r="AB6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>S</v>
       </c>
       <c r="AC6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>M</v>
       </c>
       <c r="AD6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>T</v>
       </c>
       <c r="AE6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>W</v>
       </c>
       <c r="AF6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>T</v>
       </c>
       <c r="AG6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>F</v>
       </c>
       <c r="AH6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>S</v>
       </c>
       <c r="AI6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>S</v>
       </c>
       <c r="AJ6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>M</v>
       </c>
       <c r="AK6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>T</v>
       </c>
       <c r="AL6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>W</v>
       </c>
       <c r="AM6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>T</v>
       </c>
       <c r="AN6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>F</v>
       </c>
       <c r="AO6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>S</v>
       </c>
       <c r="AP6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>S</v>
       </c>
       <c r="AQ6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>M</v>
       </c>
       <c r="AR6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>T</v>
       </c>
       <c r="AS6" s="9" t="str">
-        <f t="shared" ref="AS6:BL6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
+        <f t="shared" ref="AS6:BM6" si="20">LEFT(TEXT(AS5,"ddd"),1)</f>
         <v>W</v>
       </c>
       <c r="AT6" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>T</v>
       </c>
       <c r="AU6" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>F</v>
       </c>
       <c r="AV6" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>S</v>
       </c>
       <c r="AW6" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>S</v>
       </c>
       <c r="AX6" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>M</v>
       </c>
       <c r="AY6" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>T</v>
       </c>
       <c r="AZ6" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>W</v>
       </c>
       <c r="BA6" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>T</v>
       </c>
       <c r="BB6" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>F</v>
       </c>
       <c r="BC6" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>S</v>
       </c>
       <c r="BD6" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>S</v>
       </c>
       <c r="BE6" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>M</v>
       </c>
       <c r="BF6" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>T</v>
       </c>
       <c r="BG6" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>W</v>
       </c>
       <c r="BH6" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>T</v>
       </c>
       <c r="BI6" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>F</v>
       </c>
       <c r="BJ6" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>S</v>
       </c>
       <c r="BK6" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>S</v>
       </c>
       <c r="BL6" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>M</v>
       </c>
+      <c r="BM6" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>T</v>
+      </c>
+      <c r="BN6" s="9" t="str">
+        <f t="shared" ref="BN6:CG6" si="21">LEFT(TEXT(BN5,"ddd"),1)</f>
+        <v>W</v>
+      </c>
+      <c r="BO6" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>T</v>
+      </c>
+      <c r="BP6" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>F</v>
+      </c>
+      <c r="BQ6" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>S</v>
+      </c>
+      <c r="BR6" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>S</v>
+      </c>
+      <c r="BS6" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>M</v>
+      </c>
+      <c r="BT6" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>T</v>
+      </c>
+      <c r="BU6" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>W</v>
+      </c>
+      <c r="BV6" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>T</v>
+      </c>
+      <c r="BW6" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>F</v>
+      </c>
+      <c r="BX6" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>S</v>
+      </c>
+      <c r="BY6" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>S</v>
+      </c>
+      <c r="BZ6" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>M</v>
+      </c>
+      <c r="CA6" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>T</v>
+      </c>
+      <c r="CB6" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>W</v>
+      </c>
+      <c r="CC6" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>T</v>
+      </c>
+      <c r="CD6" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>F</v>
+      </c>
+      <c r="CE6" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>S</v>
+      </c>
+      <c r="CF6" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>S</v>
+      </c>
+      <c r="CG6" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>M</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1">
+    <row r="7" spans="1:85" ht="30" hidden="1" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
@@ -2999,8 +3400,29 @@
       <c r="BJ7" s="11"/>
       <c r="BK7" s="11"/>
       <c r="BL7" s="11"/>
+      <c r="BM7" s="11"/>
+      <c r="BN7" s="11"/>
+      <c r="BO7" s="11"/>
+      <c r="BP7" s="11"/>
+      <c r="BQ7" s="11"/>
+      <c r="BR7" s="11"/>
+      <c r="BS7" s="11"/>
+      <c r="BT7" s="11"/>
+      <c r="BU7" s="11"/>
+      <c r="BV7" s="11"/>
+      <c r="BW7" s="11"/>
+      <c r="BX7" s="11"/>
+      <c r="BY7" s="11"/>
+      <c r="BZ7" s="11"/>
+      <c r="CA7" s="11"/>
+      <c r="CB7" s="11"/>
+      <c r="CC7" s="11"/>
+      <c r="CD7" s="11"/>
+      <c r="CE7" s="11"/>
+      <c r="CF7" s="11"/>
+      <c r="CG7" s="11"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="8" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
@@ -3013,7 +3435,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10" t="str">
-        <f t="shared" ref="H8:H51" ca="1" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H54" ca="1" si="22">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="11"/>
@@ -3072,8 +3494,29 @@
       <c r="BJ8" s="11"/>
       <c r="BK8" s="11"/>
       <c r="BL8" s="11"/>
+      <c r="BM8" s="11"/>
+      <c r="BN8" s="11"/>
+      <c r="BO8" s="11"/>
+      <c r="BP8" s="11"/>
+      <c r="BQ8" s="11"/>
+      <c r="BR8" s="11"/>
+      <c r="BS8" s="11"/>
+      <c r="BT8" s="11"/>
+      <c r="BU8" s="11"/>
+      <c r="BV8" s="11"/>
+      <c r="BW8" s="11"/>
+      <c r="BX8" s="11"/>
+      <c r="BY8" s="11"/>
+      <c r="BZ8" s="55"/>
+      <c r="CA8" s="11"/>
+      <c r="CB8" s="11"/>
+      <c r="CC8" s="11"/>
+      <c r="CD8" s="11"/>
+      <c r="CE8" s="11"/>
+      <c r="CF8" s="11"/>
+      <c r="CG8" s="11"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="9" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>20</v>
       </c>
@@ -3094,7 +3537,7 @@
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>14</v>
       </c>
       <c r="I9" s="11"/>
@@ -3153,8 +3596,29 @@
       <c r="BJ9" s="11"/>
       <c r="BK9" s="11"/>
       <c r="BL9" s="11"/>
+      <c r="BM9" s="11"/>
+      <c r="BN9" s="11"/>
+      <c r="BO9" s="11"/>
+      <c r="BP9" s="11"/>
+      <c r="BQ9" s="11"/>
+      <c r="BR9" s="11"/>
+      <c r="BS9" s="11"/>
+      <c r="BT9" s="11"/>
+      <c r="BU9" s="11"/>
+      <c r="BV9" s="11"/>
+      <c r="BW9" s="11"/>
+      <c r="BX9" s="11"/>
+      <c r="BY9" s="11"/>
+      <c r="BZ9" s="11"/>
+      <c r="CA9" s="11"/>
+      <c r="CB9" s="11"/>
+      <c r="CC9" s="11"/>
+      <c r="CD9" s="11"/>
+      <c r="CE9" s="11"/>
+      <c r="CF9" s="11"/>
+      <c r="CG9" s="11"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>23</v>
       </c>
@@ -3175,7 +3639,7 @@
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>14</v>
       </c>
       <c r="I10" s="11"/>
@@ -3234,8 +3698,29 @@
       <c r="BJ10" s="11"/>
       <c r="BK10" s="11"/>
       <c r="BL10" s="11"/>
+      <c r="BM10" s="11"/>
+      <c r="BN10" s="11"/>
+      <c r="BO10" s="11"/>
+      <c r="BP10" s="11"/>
+      <c r="BQ10" s="11"/>
+      <c r="BR10" s="11"/>
+      <c r="BS10" s="11"/>
+      <c r="BT10" s="11"/>
+      <c r="BU10" s="11"/>
+      <c r="BV10" s="11"/>
+      <c r="BW10" s="11"/>
+      <c r="BX10" s="11"/>
+      <c r="BY10" s="11"/>
+      <c r="BZ10" s="11"/>
+      <c r="CA10" s="11"/>
+      <c r="CB10" s="11"/>
+      <c r="CC10" s="11"/>
+      <c r="CD10" s="11"/>
+      <c r="CE10" s="11"/>
+      <c r="CF10" s="11"/>
+      <c r="CG10" s="11"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="11" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="29" t="s">
         <v>26</v>
@@ -3254,7 +3739,7 @@
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>14</v>
       </c>
       <c r="I11" s="11"/>
@@ -3313,8 +3798,29 @@
       <c r="BJ11" s="11"/>
       <c r="BK11" s="11"/>
       <c r="BL11" s="11"/>
+      <c r="BM11" s="11"/>
+      <c r="BN11" s="11"/>
+      <c r="BO11" s="11"/>
+      <c r="BP11" s="11"/>
+      <c r="BQ11" s="11"/>
+      <c r="BR11" s="11"/>
+      <c r="BS11" s="11"/>
+      <c r="BT11" s="11"/>
+      <c r="BU11" s="11"/>
+      <c r="BV11" s="11"/>
+      <c r="BW11" s="11"/>
+      <c r="BX11" s="11"/>
+      <c r="BY11" s="11"/>
+      <c r="BZ11" s="11"/>
+      <c r="CA11" s="11"/>
+      <c r="CB11" s="11"/>
+      <c r="CC11" s="11"/>
+      <c r="CD11" s="11"/>
+      <c r="CE11" s="11"/>
+      <c r="CF11" s="11"/>
+      <c r="CG11" s="11"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="12" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="29" t="s">
         <v>28</v>
@@ -3333,7 +3839,7 @@
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>14</v>
       </c>
       <c r="I12" s="11"/>
@@ -3392,8 +3898,29 @@
       <c r="BJ12" s="11"/>
       <c r="BK12" s="11"/>
       <c r="BL12" s="11"/>
+      <c r="BM12" s="11"/>
+      <c r="BN12" s="11"/>
+      <c r="BO12" s="11"/>
+      <c r="BP12" s="11"/>
+      <c r="BQ12" s="11"/>
+      <c r="BR12" s="11"/>
+      <c r="BS12" s="11"/>
+      <c r="BT12" s="11"/>
+      <c r="BU12" s="11"/>
+      <c r="BV12" s="11"/>
+      <c r="BW12" s="11"/>
+      <c r="BX12" s="11"/>
+      <c r="BY12" s="11"/>
+      <c r="BZ12" s="11"/>
+      <c r="CA12" s="11"/>
+      <c r="CB12" s="11"/>
+      <c r="CC12" s="11"/>
+      <c r="CD12" s="11"/>
+      <c r="CE12" s="11"/>
+      <c r="CF12" s="11"/>
+      <c r="CG12" s="11"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="13" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="29" t="s">
         <v>30</v>
@@ -3468,8 +3995,29 @@
       <c r="BJ13" s="11"/>
       <c r="BK13" s="11"/>
       <c r="BL13" s="11"/>
+      <c r="BM13" s="11"/>
+      <c r="BN13" s="11"/>
+      <c r="BO13" s="11"/>
+      <c r="BP13" s="11"/>
+      <c r="BQ13" s="11"/>
+      <c r="BR13" s="11"/>
+      <c r="BS13" s="11"/>
+      <c r="BT13" s="11"/>
+      <c r="BU13" s="11"/>
+      <c r="BV13" s="11"/>
+      <c r="BW13" s="11"/>
+      <c r="BX13" s="11"/>
+      <c r="BY13" s="11"/>
+      <c r="BZ13" s="11"/>
+      <c r="CA13" s="11"/>
+      <c r="CB13" s="11"/>
+      <c r="CC13" s="11"/>
+      <c r="CD13" s="11"/>
+      <c r="CE13" s="11"/>
+      <c r="CF13" s="11"/>
+      <c r="CG13" s="11"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="29" t="s">
         <v>32</v>
@@ -3544,8 +4092,29 @@
       <c r="BJ14" s="11"/>
       <c r="BK14" s="11"/>
       <c r="BL14" s="11"/>
+      <c r="BM14" s="11"/>
+      <c r="BN14" s="11"/>
+      <c r="BO14" s="11"/>
+      <c r="BP14" s="11"/>
+      <c r="BQ14" s="11"/>
+      <c r="BR14" s="11"/>
+      <c r="BS14" s="11"/>
+      <c r="BT14" s="11"/>
+      <c r="BU14" s="11"/>
+      <c r="BV14" s="11"/>
+      <c r="BW14" s="11"/>
+      <c r="BX14" s="11"/>
+      <c r="BY14" s="11"/>
+      <c r="BZ14" s="11"/>
+      <c r="CA14" s="11"/>
+      <c r="CB14" s="11"/>
+      <c r="CC14" s="11"/>
+      <c r="CD14" s="11"/>
+      <c r="CE14" s="11"/>
+      <c r="CF14" s="11"/>
+      <c r="CG14" s="11"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="29" t="s">
         <v>34</v>
@@ -3620,8 +4189,29 @@
       <c r="BJ15" s="11"/>
       <c r="BK15" s="11"/>
       <c r="BL15" s="11"/>
+      <c r="BM15" s="11"/>
+      <c r="BN15" s="11"/>
+      <c r="BO15" s="11"/>
+      <c r="BP15" s="11"/>
+      <c r="BQ15" s="11"/>
+      <c r="BR15" s="11"/>
+      <c r="BS15" s="11"/>
+      <c r="BT15" s="11"/>
+      <c r="BU15" s="11"/>
+      <c r="BV15" s="11"/>
+      <c r="BW15" s="11"/>
+      <c r="BX15" s="11"/>
+      <c r="BY15" s="11"/>
+      <c r="BZ15" s="11"/>
+      <c r="CA15" s="11"/>
+      <c r="CB15" s="11"/>
+      <c r="CC15" s="11"/>
+      <c r="CD15" s="11"/>
+      <c r="CE15" s="11"/>
+      <c r="CF15" s="11"/>
+      <c r="CG15" s="11"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="16" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="29" t="s">
         <v>36</v>
@@ -3640,7 +4230,7 @@
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>14</v>
       </c>
       <c r="I16" s="11"/>
@@ -3699,8 +4289,29 @@
       <c r="BJ16" s="11"/>
       <c r="BK16" s="11"/>
       <c r="BL16" s="11"/>
+      <c r="BM16" s="11"/>
+      <c r="BN16" s="11"/>
+      <c r="BO16" s="11"/>
+      <c r="BP16" s="11"/>
+      <c r="BQ16" s="11"/>
+      <c r="BR16" s="11"/>
+      <c r="BS16" s="11"/>
+      <c r="BT16" s="11"/>
+      <c r="BU16" s="11"/>
+      <c r="BV16" s="11"/>
+      <c r="BW16" s="11"/>
+      <c r="BX16" s="11"/>
+      <c r="BY16" s="11"/>
+      <c r="BZ16" s="11"/>
+      <c r="CA16" s="11"/>
+      <c r="CB16" s="11"/>
+      <c r="CC16" s="11"/>
+      <c r="CD16" s="11"/>
+      <c r="CE16" s="11"/>
+      <c r="CF16" s="11"/>
+      <c r="CG16" s="11"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="17" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>38</v>
       </c>
@@ -3713,7 +4324,7 @@
       <c r="F17" s="42"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="I17" s="11"/>
@@ -3772,8 +4383,29 @@
       <c r="BJ17" s="11"/>
       <c r="BK17" s="11"/>
       <c r="BL17" s="11"/>
+      <c r="BM17" s="11"/>
+      <c r="BN17" s="11"/>
+      <c r="BO17" s="11"/>
+      <c r="BP17" s="11"/>
+      <c r="BQ17" s="11"/>
+      <c r="BR17" s="11"/>
+      <c r="BS17" s="11"/>
+      <c r="BT17" s="11"/>
+      <c r="BU17" s="11"/>
+      <c r="BV17" s="11"/>
+      <c r="BW17" s="11"/>
+      <c r="BX17" s="11"/>
+      <c r="BY17" s="11"/>
+      <c r="BZ17" s="11"/>
+      <c r="CA17" s="11"/>
+      <c r="CB17" s="11"/>
+      <c r="CC17" s="11"/>
+      <c r="CD17" s="11"/>
+      <c r="CE17" s="11"/>
+      <c r="CF17" s="11"/>
+      <c r="CG17" s="11"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="18" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="43" t="s">
         <v>40</v>
@@ -3793,7 +4425,7 @@
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>13</v>
       </c>
       <c r="I18" s="11"/>
@@ -3852,8 +4484,29 @@
       <c r="BJ18" s="11"/>
       <c r="BK18" s="11"/>
       <c r="BL18" s="11"/>
+      <c r="BM18" s="11"/>
+      <c r="BN18" s="11"/>
+      <c r="BO18" s="11"/>
+      <c r="BP18" s="11"/>
+      <c r="BQ18" s="11"/>
+      <c r="BR18" s="11"/>
+      <c r="BS18" s="11"/>
+      <c r="BT18" s="11"/>
+      <c r="BU18" s="11"/>
+      <c r="BV18" s="11"/>
+      <c r="BW18" s="11"/>
+      <c r="BX18" s="11"/>
+      <c r="BY18" s="11"/>
+      <c r="BZ18" s="11"/>
+      <c r="CA18" s="11"/>
+      <c r="CB18" s="11"/>
+      <c r="CC18" s="11"/>
+      <c r="CD18" s="11"/>
+      <c r="CE18" s="11"/>
+      <c r="CF18" s="11"/>
+      <c r="CG18" s="11"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="19" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="43" t="s">
         <v>42</v>
@@ -3872,7 +4525,7 @@
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>8</v>
       </c>
       <c r="I19" s="11"/>
@@ -3931,8 +4584,29 @@
       <c r="BJ19" s="11"/>
       <c r="BK19" s="11"/>
       <c r="BL19" s="11"/>
+      <c r="BM19" s="11"/>
+      <c r="BN19" s="11"/>
+      <c r="BO19" s="11"/>
+      <c r="BP19" s="11"/>
+      <c r="BQ19" s="11"/>
+      <c r="BR19" s="11"/>
+      <c r="BS19" s="11"/>
+      <c r="BT19" s="11"/>
+      <c r="BU19" s="11"/>
+      <c r="BV19" s="11"/>
+      <c r="BW19" s="11"/>
+      <c r="BX19" s="11"/>
+      <c r="BY19" s="11"/>
+      <c r="BZ19" s="11"/>
+      <c r="CA19" s="11"/>
+      <c r="CB19" s="11"/>
+      <c r="CC19" s="11"/>
+      <c r="CD19" s="11"/>
+      <c r="CE19" s="11"/>
+      <c r="CF19" s="11"/>
+      <c r="CG19" s="11"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="20" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="43" t="s">
         <v>44</v>
@@ -3952,7 +4626,7 @@
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>8</v>
       </c>
       <c r="I20" s="11"/>
@@ -4011,8 +4685,29 @@
       <c r="BJ20" s="11"/>
       <c r="BK20" s="11"/>
       <c r="BL20" s="11"/>
+      <c r="BM20" s="11"/>
+      <c r="BN20" s="11"/>
+      <c r="BO20" s="11"/>
+      <c r="BP20" s="11"/>
+      <c r="BQ20" s="11"/>
+      <c r="BR20" s="11"/>
+      <c r="BS20" s="11"/>
+      <c r="BT20" s="11"/>
+      <c r="BU20" s="11"/>
+      <c r="BV20" s="11"/>
+      <c r="BW20" s="11"/>
+      <c r="BX20" s="11"/>
+      <c r="BY20" s="11"/>
+      <c r="BZ20" s="11"/>
+      <c r="CA20" s="11"/>
+      <c r="CB20" s="11"/>
+      <c r="CC20" s="11"/>
+      <c r="CD20" s="11"/>
+      <c r="CE20" s="11"/>
+      <c r="CF20" s="11"/>
+      <c r="CG20" s="11"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="21" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="43" t="s">
         <v>46</v>
@@ -4031,7 +4726,7 @@
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>8</v>
       </c>
       <c r="I21" s="11"/>
@@ -4090,8 +4785,29 @@
       <c r="BJ21" s="11"/>
       <c r="BK21" s="11"/>
       <c r="BL21" s="11"/>
+      <c r="BM21" s="11"/>
+      <c r="BN21" s="11"/>
+      <c r="BO21" s="11"/>
+      <c r="BP21" s="11"/>
+      <c r="BQ21" s="11"/>
+      <c r="BR21" s="11"/>
+      <c r="BS21" s="11"/>
+      <c r="BT21" s="11"/>
+      <c r="BU21" s="11"/>
+      <c r="BV21" s="11"/>
+      <c r="BW21" s="11"/>
+      <c r="BX21" s="11"/>
+      <c r="BY21" s="11"/>
+      <c r="BZ21" s="11"/>
+      <c r="CA21" s="11"/>
+      <c r="CB21" s="11"/>
+      <c r="CC21" s="11"/>
+      <c r="CD21" s="11"/>
+      <c r="CE21" s="11"/>
+      <c r="CF21" s="11"/>
+      <c r="CG21" s="11"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="22" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="43" t="s">
         <v>48</v>
@@ -4166,8 +4882,29 @@
       <c r="BJ22" s="11"/>
       <c r="BK22" s="11"/>
       <c r="BL22" s="11"/>
+      <c r="BM22" s="11"/>
+      <c r="BN22" s="11"/>
+      <c r="BO22" s="11"/>
+      <c r="BP22" s="11"/>
+      <c r="BQ22" s="11"/>
+      <c r="BR22" s="11"/>
+      <c r="BS22" s="11"/>
+      <c r="BT22" s="11"/>
+      <c r="BU22" s="11"/>
+      <c r="BV22" s="11"/>
+      <c r="BW22" s="11"/>
+      <c r="BX22" s="11"/>
+      <c r="BY22" s="11"/>
+      <c r="BZ22" s="11"/>
+      <c r="CA22" s="11"/>
+      <c r="CB22" s="11"/>
+      <c r="CC22" s="11"/>
+      <c r="CD22" s="11"/>
+      <c r="CE22" s="11"/>
+      <c r="CF22" s="11"/>
+      <c r="CG22" s="11"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="23" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="43" t="s">
         <v>49</v>
@@ -4186,7 +4923,7 @@
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>8</v>
       </c>
       <c r="I23" s="11"/>
@@ -4245,8 +4982,29 @@
       <c r="BJ23" s="11"/>
       <c r="BK23" s="11"/>
       <c r="BL23" s="11"/>
+      <c r="BM23" s="11"/>
+      <c r="BN23" s="11"/>
+      <c r="BO23" s="11"/>
+      <c r="BP23" s="11"/>
+      <c r="BQ23" s="11"/>
+      <c r="BR23" s="11"/>
+      <c r="BS23" s="11"/>
+      <c r="BT23" s="11"/>
+      <c r="BU23" s="11"/>
+      <c r="BV23" s="11"/>
+      <c r="BW23" s="11"/>
+      <c r="BX23" s="11"/>
+      <c r="BY23" s="11"/>
+      <c r="BZ23" s="11"/>
+      <c r="CA23" s="11"/>
+      <c r="CB23" s="11"/>
+      <c r="CC23" s="11"/>
+      <c r="CD23" s="11"/>
+      <c r="CE23" s="11"/>
+      <c r="CF23" s="11"/>
+      <c r="CG23" s="11"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="24" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>50</v>
       </c>
@@ -4267,7 +5025,7 @@
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>8</v>
       </c>
       <c r="I24" s="11"/>
@@ -4326,8 +5084,29 @@
       <c r="BJ24" s="11"/>
       <c r="BK24" s="11"/>
       <c r="BL24" s="11"/>
+      <c r="BM24" s="11"/>
+      <c r="BN24" s="11"/>
+      <c r="BO24" s="11"/>
+      <c r="BP24" s="11"/>
+      <c r="BQ24" s="11"/>
+      <c r="BR24" s="11"/>
+      <c r="BS24" s="11"/>
+      <c r="BT24" s="11"/>
+      <c r="BU24" s="11"/>
+      <c r="BV24" s="11"/>
+      <c r="BW24" s="11"/>
+      <c r="BX24" s="11"/>
+      <c r="BY24" s="11"/>
+      <c r="BZ24" s="11"/>
+      <c r="CA24" s="11"/>
+      <c r="CB24" s="11"/>
+      <c r="CC24" s="11"/>
+      <c r="CD24" s="11"/>
+      <c r="CE24" s="11"/>
+      <c r="CF24" s="11"/>
+      <c r="CG24" s="11"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="25" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="14"/>
       <c r="B25" s="31" t="s">
         <v>28</v>
@@ -4338,7 +5117,7 @@
       <c r="F25" s="35"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="I25" s="11"/>
@@ -4397,8 +5176,29 @@
       <c r="BJ25" s="11"/>
       <c r="BK25" s="11"/>
       <c r="BL25" s="11"/>
+      <c r="BM25" s="11"/>
+      <c r="BN25" s="11"/>
+      <c r="BO25" s="11"/>
+      <c r="BP25" s="11"/>
+      <c r="BQ25" s="11"/>
+      <c r="BR25" s="11"/>
+      <c r="BS25" s="11"/>
+      <c r="BT25" s="11"/>
+      <c r="BU25" s="11"/>
+      <c r="BV25" s="11"/>
+      <c r="BW25" s="11"/>
+      <c r="BX25" s="11"/>
+      <c r="BY25" s="11"/>
+      <c r="BZ25" s="11"/>
+      <c r="CA25" s="11"/>
+      <c r="CB25" s="11"/>
+      <c r="CC25" s="11"/>
+      <c r="CD25" s="11"/>
+      <c r="CE25" s="11"/>
+      <c r="CF25" s="11"/>
+      <c r="CG25" s="11"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="26" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="36" t="s">
         <v>53</v>
@@ -4417,7 +5217,7 @@
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>18</v>
       </c>
       <c r="I26" s="11"/>
@@ -4476,8 +5276,29 @@
       <c r="BJ26" s="11"/>
       <c r="BK26" s="11"/>
       <c r="BL26" s="11"/>
+      <c r="BM26" s="11"/>
+      <c r="BN26" s="11"/>
+      <c r="BO26" s="11"/>
+      <c r="BP26" s="11"/>
+      <c r="BQ26" s="11"/>
+      <c r="BR26" s="11"/>
+      <c r="BS26" s="11"/>
+      <c r="BT26" s="11"/>
+      <c r="BU26" s="11"/>
+      <c r="BV26" s="11"/>
+      <c r="BW26" s="11"/>
+      <c r="BX26" s="11"/>
+      <c r="BY26" s="11"/>
+      <c r="BZ26" s="11"/>
+      <c r="CA26" s="11"/>
+      <c r="CB26" s="11"/>
+      <c r="CC26" s="11"/>
+      <c r="CD26" s="11"/>
+      <c r="CE26" s="11"/>
+      <c r="CF26" s="11"/>
+      <c r="CG26" s="11"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="27" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="36" t="s">
         <v>54</v>
@@ -4496,7 +5317,7 @@
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>18</v>
       </c>
       <c r="I27" s="11"/>
@@ -4555,8 +5376,29 @@
       <c r="BJ27" s="11"/>
       <c r="BK27" s="11"/>
       <c r="BL27" s="11"/>
+      <c r="BM27" s="11"/>
+      <c r="BN27" s="11"/>
+      <c r="BO27" s="11"/>
+      <c r="BP27" s="11"/>
+      <c r="BQ27" s="11"/>
+      <c r="BR27" s="11"/>
+      <c r="BS27" s="11"/>
+      <c r="BT27" s="11"/>
+      <c r="BU27" s="11"/>
+      <c r="BV27" s="11"/>
+      <c r="BW27" s="11"/>
+      <c r="BX27" s="11"/>
+      <c r="BY27" s="11"/>
+      <c r="BZ27" s="11"/>
+      <c r="CA27" s="11"/>
+      <c r="CB27" s="11"/>
+      <c r="CC27" s="11"/>
+      <c r="CD27" s="11"/>
+      <c r="CE27" s="11"/>
+      <c r="CF27" s="11"/>
+      <c r="CG27" s="11"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="28" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="36" t="s">
         <v>55</v>
@@ -4575,7 +5417,7 @@
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>18</v>
       </c>
       <c r="I28" s="11"/>
@@ -4634,8 +5476,29 @@
       <c r="BJ28" s="11"/>
       <c r="BK28" s="11"/>
       <c r="BL28" s="11"/>
+      <c r="BM28" s="11"/>
+      <c r="BN28" s="11"/>
+      <c r="BO28" s="11"/>
+      <c r="BP28" s="11"/>
+      <c r="BQ28" s="11"/>
+      <c r="BR28" s="11"/>
+      <c r="BS28" s="11"/>
+      <c r="BT28" s="11"/>
+      <c r="BU28" s="11"/>
+      <c r="BV28" s="11"/>
+      <c r="BW28" s="11"/>
+      <c r="BX28" s="11"/>
+      <c r="BY28" s="11"/>
+      <c r="BZ28" s="11"/>
+      <c r="CA28" s="11"/>
+      <c r="CB28" s="11"/>
+      <c r="CC28" s="11"/>
+      <c r="CD28" s="11"/>
+      <c r="CE28" s="11"/>
+      <c r="CF28" s="11"/>
+      <c r="CG28" s="11"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="29" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A29" s="14"/>
       <c r="B29" s="36" t="s">
         <v>56</v>
@@ -4654,7 +5517,7 @@
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>18</v>
       </c>
       <c r="I29" s="11"/>
@@ -4713,8 +5576,29 @@
       <c r="BJ29" s="11"/>
       <c r="BK29" s="11"/>
       <c r="BL29" s="11"/>
+      <c r="BM29" s="11"/>
+      <c r="BN29" s="11"/>
+      <c r="BO29" s="11"/>
+      <c r="BP29" s="11"/>
+      <c r="BQ29" s="11"/>
+      <c r="BR29" s="11"/>
+      <c r="BS29" s="11"/>
+      <c r="BT29" s="11"/>
+      <c r="BU29" s="11"/>
+      <c r="BV29" s="11"/>
+      <c r="BW29" s="11"/>
+      <c r="BX29" s="11"/>
+      <c r="BY29" s="11"/>
+      <c r="BZ29" s="11"/>
+      <c r="CA29" s="11"/>
+      <c r="CB29" s="11"/>
+      <c r="CC29" s="11"/>
+      <c r="CD29" s="11"/>
+      <c r="CE29" s="11"/>
+      <c r="CF29" s="11"/>
+      <c r="CG29" s="11"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="30" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>50</v>
       </c>
@@ -4735,7 +5619,7 @@
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>18</v>
       </c>
       <c r="I30" s="11"/>
@@ -4794,8 +5678,29 @@
       <c r="BJ30" s="11"/>
       <c r="BK30" s="11"/>
       <c r="BL30" s="11"/>
+      <c r="BM30" s="11"/>
+      <c r="BN30" s="11"/>
+      <c r="BO30" s="11"/>
+      <c r="BP30" s="11"/>
+      <c r="BQ30" s="11"/>
+      <c r="BR30" s="11"/>
+      <c r="BS30" s="11"/>
+      <c r="BT30" s="11"/>
+      <c r="BU30" s="11"/>
+      <c r="BV30" s="11"/>
+      <c r="BW30" s="11"/>
+      <c r="BX30" s="11"/>
+      <c r="BY30" s="11"/>
+      <c r="BZ30" s="11"/>
+      <c r="CA30" s="11"/>
+      <c r="CB30" s="11"/>
+      <c r="CC30" s="11"/>
+      <c r="CD30" s="11"/>
+      <c r="CE30" s="11"/>
+      <c r="CF30" s="11"/>
+      <c r="CG30" s="11"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="31" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A31" s="14"/>
       <c r="B31" s="36" t="s">
         <v>59</v>
@@ -4814,7 +5719,7 @@
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>18</v>
       </c>
       <c r="I31" s="11"/>
@@ -4873,8 +5778,29 @@
       <c r="BJ31" s="11"/>
       <c r="BK31" s="11"/>
       <c r="BL31" s="11"/>
+      <c r="BM31" s="11"/>
+      <c r="BN31" s="11"/>
+      <c r="BO31" s="11"/>
+      <c r="BP31" s="11"/>
+      <c r="BQ31" s="11"/>
+      <c r="BR31" s="11"/>
+      <c r="BS31" s="11"/>
+      <c r="BT31" s="11"/>
+      <c r="BU31" s="11"/>
+      <c r="BV31" s="11"/>
+      <c r="BW31" s="11"/>
+      <c r="BX31" s="11"/>
+      <c r="BY31" s="11"/>
+      <c r="BZ31" s="11"/>
+      <c r="CA31" s="11"/>
+      <c r="CB31" s="11"/>
+      <c r="CC31" s="11"/>
+      <c r="CD31" s="11"/>
+      <c r="CE31" s="11"/>
+      <c r="CF31" s="11"/>
+      <c r="CG31" s="11"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="32" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="36" t="s">
         <v>61</v>
@@ -4893,7 +5819,7 @@
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>18</v>
       </c>
       <c r="I32" s="11"/>
@@ -4952,8 +5878,29 @@
       <c r="BJ32" s="11"/>
       <c r="BK32" s="11"/>
       <c r="BL32" s="11"/>
+      <c r="BM32" s="11"/>
+      <c r="BN32" s="11"/>
+      <c r="BO32" s="11"/>
+      <c r="BP32" s="11"/>
+      <c r="BQ32" s="11"/>
+      <c r="BR32" s="11"/>
+      <c r="BS32" s="11"/>
+      <c r="BT32" s="11"/>
+      <c r="BU32" s="11"/>
+      <c r="BV32" s="11"/>
+      <c r="BW32" s="11"/>
+      <c r="BX32" s="11"/>
+      <c r="BY32" s="11"/>
+      <c r="BZ32" s="11"/>
+      <c r="CA32" s="11"/>
+      <c r="CB32" s="11"/>
+      <c r="CC32" s="11"/>
+      <c r="CD32" s="11"/>
+      <c r="CE32" s="11"/>
+      <c r="CF32" s="11"/>
+      <c r="CG32" s="11"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="33" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A33" s="14"/>
       <c r="B33" s="36" t="s">
         <v>62</v>
@@ -4972,7 +5919,7 @@
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>18</v>
       </c>
       <c r="I33" s="11"/>
@@ -5031,8 +5978,29 @@
       <c r="BJ33" s="11"/>
       <c r="BK33" s="11"/>
       <c r="BL33" s="11"/>
+      <c r="BM33" s="11"/>
+      <c r="BN33" s="11"/>
+      <c r="BO33" s="11"/>
+      <c r="BP33" s="11"/>
+      <c r="BQ33" s="11"/>
+      <c r="BR33" s="11"/>
+      <c r="BS33" s="11"/>
+      <c r="BT33" s="11"/>
+      <c r="BU33" s="11"/>
+      <c r="BV33" s="11"/>
+      <c r="BW33" s="11"/>
+      <c r="BX33" s="11"/>
+      <c r="BY33" s="11"/>
+      <c r="BZ33" s="11"/>
+      <c r="CA33" s="11"/>
+      <c r="CB33" s="11"/>
+      <c r="CC33" s="11"/>
+      <c r="CD33" s="11"/>
+      <c r="CE33" s="11"/>
+      <c r="CF33" s="11"/>
+      <c r="CG33" s="11"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="34" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A34" s="14"/>
       <c r="B34" s="36" t="s">
         <v>63</v>
@@ -5051,7 +6019,7 @@
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>18</v>
       </c>
       <c r="I34" s="11"/>
@@ -5110,8 +6078,29 @@
       <c r="BJ34" s="11"/>
       <c r="BK34" s="11"/>
       <c r="BL34" s="11"/>
+      <c r="BM34" s="11"/>
+      <c r="BN34" s="11"/>
+      <c r="BO34" s="11"/>
+      <c r="BP34" s="11"/>
+      <c r="BQ34" s="11"/>
+      <c r="BR34" s="11"/>
+      <c r="BS34" s="11"/>
+      <c r="BT34" s="11"/>
+      <c r="BU34" s="11"/>
+      <c r="BV34" s="11"/>
+      <c r="BW34" s="11"/>
+      <c r="BX34" s="11"/>
+      <c r="BY34" s="11"/>
+      <c r="BZ34" s="11"/>
+      <c r="CA34" s="11"/>
+      <c r="CB34" s="11"/>
+      <c r="CC34" s="11"/>
+      <c r="CD34" s="11"/>
+      <c r="CE34" s="11"/>
+      <c r="CF34" s="11"/>
+      <c r="CG34" s="11"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="35" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A35" s="14" t="s">
         <v>65</v>
       </c>
@@ -5132,7 +6121,7 @@
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>50</v>
       </c>
       <c r="I35" s="11"/>
@@ -5191,21 +6180,42 @@
       <c r="BJ35" s="11"/>
       <c r="BK35" s="11"/>
       <c r="BL35" s="11"/>
+      <c r="BM35" s="11"/>
+      <c r="BN35" s="11"/>
+      <c r="BO35" s="11"/>
+      <c r="BP35" s="11"/>
+      <c r="BQ35" s="11"/>
+      <c r="BR35" s="11"/>
+      <c r="BS35" s="11"/>
+      <c r="BT35" s="11"/>
+      <c r="BU35" s="11"/>
+      <c r="BV35" s="11"/>
+      <c r="BW35" s="11"/>
+      <c r="BX35" s="11"/>
+      <c r="BY35" s="11"/>
+      <c r="BZ35" s="11"/>
+      <c r="CA35" s="11"/>
+      <c r="CB35" s="11"/>
+      <c r="CC35" s="11"/>
+      <c r="CD35" s="11"/>
+      <c r="CE35" s="11"/>
+      <c r="CF35" s="11"/>
+      <c r="CG35" s="11"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="36" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A36" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="52"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="I36" s="11"/>
@@ -5264,26 +6274,47 @@
       <c r="BJ36" s="11"/>
       <c r="BK36" s="11"/>
       <c r="BL36" s="11"/>
+      <c r="BM36" s="11"/>
+      <c r="BN36" s="11"/>
+      <c r="BO36" s="11"/>
+      <c r="BP36" s="11"/>
+      <c r="BQ36" s="11"/>
+      <c r="BR36" s="11"/>
+      <c r="BS36" s="11"/>
+      <c r="BT36" s="11"/>
+      <c r="BU36" s="11"/>
+      <c r="BV36" s="11"/>
+      <c r="BW36" s="11"/>
+      <c r="BX36" s="11"/>
+      <c r="BY36" s="11"/>
+      <c r="BZ36" s="11"/>
+      <c r="CA36" s="11"/>
+      <c r="CB36" s="11"/>
+      <c r="CC36" s="11"/>
+      <c r="CD36" s="11"/>
+      <c r="CE36" s="11"/>
+      <c r="CF36" s="11"/>
+      <c r="CG36" s="11"/>
     </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1">
-      <c r="B37" s="53" t="s">
+    <row r="37" spans="1:85" ht="30" customHeight="1">
+      <c r="B37" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="50">
+      <c r="D37" s="47">
         <v>1</v>
       </c>
-      <c r="E37" s="54">
+      <c r="E37" s="51">
         <v>45368</v>
       </c>
-      <c r="F37" s="54">
+      <c r="F37" s="51">
         <v>45396</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>29</v>
       </c>
       <c r="I37" s="11"/>
@@ -5342,26 +6373,47 @@
       <c r="BJ37" s="11"/>
       <c r="BK37" s="11"/>
       <c r="BL37" s="11"/>
+      <c r="BM37" s="11"/>
+      <c r="BN37" s="11"/>
+      <c r="BO37" s="11"/>
+      <c r="BP37" s="11"/>
+      <c r="BQ37" s="11"/>
+      <c r="BR37" s="11"/>
+      <c r="BS37" s="11"/>
+      <c r="BT37" s="11"/>
+      <c r="BU37" s="11"/>
+      <c r="BV37" s="11"/>
+      <c r="BW37" s="11"/>
+      <c r="BX37" s="11"/>
+      <c r="BY37" s="11"/>
+      <c r="BZ37" s="11"/>
+      <c r="CA37" s="11"/>
+      <c r="CB37" s="11"/>
+      <c r="CC37" s="11"/>
+      <c r="CD37" s="11"/>
+      <c r="CE37" s="11"/>
+      <c r="CF37" s="11"/>
+      <c r="CG37" s="11"/>
     </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1">
-      <c r="B38" s="53" t="s">
+    <row r="38" spans="1:85" ht="30" customHeight="1">
+      <c r="B38" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="50">
+      <c r="D38" s="47">
         <v>1</v>
       </c>
-      <c r="E38" s="54">
+      <c r="E38" s="51">
         <v>45368</v>
       </c>
-      <c r="F38" s="54">
+      <c r="F38" s="51">
         <v>45396</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>29</v>
       </c>
       <c r="I38" s="11"/>
@@ -5420,26 +6472,47 @@
       <c r="BJ38" s="11"/>
       <c r="BK38" s="11"/>
       <c r="BL38" s="11"/>
+      <c r="BM38" s="11"/>
+      <c r="BN38" s="11"/>
+      <c r="BO38" s="11"/>
+      <c r="BP38" s="11"/>
+      <c r="BQ38" s="11"/>
+      <c r="BR38" s="11"/>
+      <c r="BS38" s="11"/>
+      <c r="BT38" s="11"/>
+      <c r="BU38" s="11"/>
+      <c r="BV38" s="11"/>
+      <c r="BW38" s="11"/>
+      <c r="BX38" s="11"/>
+      <c r="BY38" s="11"/>
+      <c r="BZ38" s="11"/>
+      <c r="CA38" s="11"/>
+      <c r="CB38" s="11"/>
+      <c r="CC38" s="11"/>
+      <c r="CD38" s="11"/>
+      <c r="CE38" s="11"/>
+      <c r="CF38" s="11"/>
+      <c r="CG38" s="11"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1">
-      <c r="B39" s="53" t="s">
+    <row r="39" spans="1:85" ht="30" customHeight="1">
+      <c r="B39" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="50">
+      <c r="D39" s="47">
         <v>1</v>
       </c>
-      <c r="E39" s="54">
+      <c r="E39" s="51">
         <v>45368</v>
       </c>
-      <c r="F39" s="54">
+      <c r="F39" s="51">
         <v>45396</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>29</v>
       </c>
       <c r="I39" s="11"/>
@@ -5498,26 +6571,47 @@
       <c r="BJ39" s="11"/>
       <c r="BK39" s="11"/>
       <c r="BL39" s="11"/>
+      <c r="BM39" s="11"/>
+      <c r="BN39" s="11"/>
+      <c r="BO39" s="11"/>
+      <c r="BP39" s="11"/>
+      <c r="BQ39" s="11"/>
+      <c r="BR39" s="11"/>
+      <c r="BS39" s="11"/>
+      <c r="BT39" s="11"/>
+      <c r="BU39" s="11"/>
+      <c r="BV39" s="11"/>
+      <c r="BW39" s="11"/>
+      <c r="BX39" s="11"/>
+      <c r="BY39" s="11"/>
+      <c r="BZ39" s="11"/>
+      <c r="CA39" s="11"/>
+      <c r="CB39" s="11"/>
+      <c r="CC39" s="11"/>
+      <c r="CD39" s="11"/>
+      <c r="CE39" s="11"/>
+      <c r="CF39" s="11"/>
+      <c r="CG39" s="11"/>
     </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1">
-      <c r="B40" s="53" t="s">
+    <row r="40" spans="1:85" ht="30" customHeight="1">
+      <c r="B40" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="50">
+      <c r="D40" s="47">
         <v>1</v>
       </c>
-      <c r="E40" s="54">
+      <c r="E40" s="51">
         <v>45368</v>
       </c>
-      <c r="F40" s="54">
+      <c r="F40" s="51">
         <v>45396</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>29</v>
       </c>
       <c r="I40" s="11"/>
@@ -5576,26 +6670,47 @@
       <c r="BJ40" s="11"/>
       <c r="BK40" s="11"/>
       <c r="BL40" s="11"/>
+      <c r="BM40" s="11"/>
+      <c r="BN40" s="11"/>
+      <c r="BO40" s="11"/>
+      <c r="BP40" s="11"/>
+      <c r="BQ40" s="11"/>
+      <c r="BR40" s="11"/>
+      <c r="BS40" s="11"/>
+      <c r="BT40" s="11"/>
+      <c r="BU40" s="11"/>
+      <c r="BV40" s="11"/>
+      <c r="BW40" s="11"/>
+      <c r="BX40" s="11"/>
+      <c r="BY40" s="11"/>
+      <c r="BZ40" s="11"/>
+      <c r="CA40" s="11"/>
+      <c r="CB40" s="11"/>
+      <c r="CC40" s="11"/>
+      <c r="CD40" s="11"/>
+      <c r="CE40" s="11"/>
+      <c r="CF40" s="11"/>
+      <c r="CG40" s="11"/>
     </row>
-    <row r="41" spans="1:64" ht="30" customHeight="1">
-      <c r="B41" s="53" t="s">
+    <row r="41" spans="1:85" ht="30" customHeight="1">
+      <c r="B41" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="50">
+      <c r="D41" s="47">
         <v>1</v>
       </c>
-      <c r="E41" s="54">
+      <c r="E41" s="51">
         <v>45368</v>
       </c>
-      <c r="F41" s="54">
+      <c r="F41" s="51">
         <v>45396</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>29</v>
       </c>
       <c r="I41" s="11"/>
@@ -5654,26 +6769,47 @@
       <c r="BJ41" s="11"/>
       <c r="BK41" s="11"/>
       <c r="BL41" s="11"/>
+      <c r="BM41" s="11"/>
+      <c r="BN41" s="11"/>
+      <c r="BO41" s="11"/>
+      <c r="BP41" s="11"/>
+      <c r="BQ41" s="11"/>
+      <c r="BR41" s="11"/>
+      <c r="BS41" s="11"/>
+      <c r="BT41" s="11"/>
+      <c r="BU41" s="11"/>
+      <c r="BV41" s="11"/>
+      <c r="BW41" s="11"/>
+      <c r="BX41" s="11"/>
+      <c r="BY41" s="11"/>
+      <c r="BZ41" s="11"/>
+      <c r="CA41" s="11"/>
+      <c r="CB41" s="11"/>
+      <c r="CC41" s="11"/>
+      <c r="CD41" s="11"/>
+      <c r="CE41" s="11"/>
+      <c r="CF41" s="11"/>
+      <c r="CG41" s="11"/>
     </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1">
-      <c r="B42" s="53" t="s">
+    <row r="42" spans="1:85" ht="30" customHeight="1">
+      <c r="B42" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="50">
+      <c r="D42" s="47">
         <v>1</v>
       </c>
-      <c r="E42" s="54">
+      <c r="E42" s="51">
         <v>45368</v>
       </c>
-      <c r="F42" s="54">
+      <c r="F42" s="51">
         <v>45396</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>29</v>
       </c>
       <c r="I42" s="11"/>
@@ -5732,26 +6868,47 @@
       <c r="BJ42" s="11"/>
       <c r="BK42" s="11"/>
       <c r="BL42" s="11"/>
+      <c r="BM42" s="11"/>
+      <c r="BN42" s="11"/>
+      <c r="BO42" s="11"/>
+      <c r="BP42" s="11"/>
+      <c r="BQ42" s="11"/>
+      <c r="BR42" s="11"/>
+      <c r="BS42" s="11"/>
+      <c r="BT42" s="11"/>
+      <c r="BU42" s="11"/>
+      <c r="BV42" s="11"/>
+      <c r="BW42" s="11"/>
+      <c r="BX42" s="11"/>
+      <c r="BY42" s="11"/>
+      <c r="BZ42" s="11"/>
+      <c r="CA42" s="11"/>
+      <c r="CB42" s="11"/>
+      <c r="CC42" s="11"/>
+      <c r="CD42" s="11"/>
+      <c r="CE42" s="11"/>
+      <c r="CF42" s="11"/>
+      <c r="CG42" s="11"/>
     </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1">
-      <c r="B43" s="53" t="s">
+    <row r="43" spans="1:85" ht="30" customHeight="1">
+      <c r="B43" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="50">
+      <c r="D43" s="47">
         <v>1</v>
       </c>
-      <c r="E43" s="54">
+      <c r="E43" s="51">
         <v>45368</v>
       </c>
-      <c r="F43" s="54">
+      <c r="F43" s="51">
         <v>45396</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>29</v>
       </c>
       <c r="I43" s="11"/>
@@ -5810,26 +6967,47 @@
       <c r="BJ43" s="11"/>
       <c r="BK43" s="11"/>
       <c r="BL43" s="11"/>
+      <c r="BM43" s="11"/>
+      <c r="BN43" s="11"/>
+      <c r="BO43" s="11"/>
+      <c r="BP43" s="11"/>
+      <c r="BQ43" s="11"/>
+      <c r="BR43" s="11"/>
+      <c r="BS43" s="11"/>
+      <c r="BT43" s="11"/>
+      <c r="BU43" s="11"/>
+      <c r="BV43" s="11"/>
+      <c r="BW43" s="11"/>
+      <c r="BX43" s="11"/>
+      <c r="BY43" s="11"/>
+      <c r="BZ43" s="11"/>
+      <c r="CA43" s="11"/>
+      <c r="CB43" s="11"/>
+      <c r="CC43" s="11"/>
+      <c r="CD43" s="11"/>
+      <c r="CE43" s="11"/>
+      <c r="CF43" s="11"/>
+      <c r="CG43" s="11"/>
     </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1">
-      <c r="B44" s="53" t="s">
+    <row r="44" spans="1:85" ht="30" customHeight="1">
+      <c r="B44" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="50">
+      <c r="D44" s="47">
         <v>1</v>
       </c>
-      <c r="E44" s="54">
+      <c r="E44" s="51">
         <v>45368</v>
       </c>
-      <c r="F44" s="54">
+      <c r="F44" s="51">
         <v>45396</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>29</v>
       </c>
       <c r="I44" s="11"/>
@@ -5888,26 +7066,47 @@
       <c r="BJ44" s="11"/>
       <c r="BK44" s="11"/>
       <c r="BL44" s="11"/>
+      <c r="BM44" s="11"/>
+      <c r="BN44" s="11"/>
+      <c r="BO44" s="11"/>
+      <c r="BP44" s="11"/>
+      <c r="BQ44" s="11"/>
+      <c r="BR44" s="11"/>
+      <c r="BS44" s="11"/>
+      <c r="BT44" s="11"/>
+      <c r="BU44" s="11"/>
+      <c r="BV44" s="11"/>
+      <c r="BW44" s="11"/>
+      <c r="BX44" s="11"/>
+      <c r="BY44" s="11"/>
+      <c r="BZ44" s="11"/>
+      <c r="CA44" s="11"/>
+      <c r="CB44" s="11"/>
+      <c r="CC44" s="11"/>
+      <c r="CD44" s="11"/>
+      <c r="CE44" s="11"/>
+      <c r="CF44" s="11"/>
+      <c r="CG44" s="11"/>
     </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1">
-      <c r="B45" s="53" t="s">
+    <row r="45" spans="1:85" ht="30" customHeight="1">
+      <c r="B45" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="50">
+      <c r="D45" s="47">
         <v>1</v>
       </c>
-      <c r="E45" s="54">
+      <c r="E45" s="51">
         <v>45368</v>
       </c>
-      <c r="F45" s="54">
+      <c r="F45" s="51">
         <v>45396</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>29</v>
       </c>
       <c r="I45" s="11"/>
@@ -5966,26 +7165,47 @@
       <c r="BJ45" s="11"/>
       <c r="BK45" s="11"/>
       <c r="BL45" s="11"/>
+      <c r="BM45" s="11"/>
+      <c r="BN45" s="11"/>
+      <c r="BO45" s="11"/>
+      <c r="BP45" s="11"/>
+      <c r="BQ45" s="11"/>
+      <c r="BR45" s="11"/>
+      <c r="BS45" s="11"/>
+      <c r="BT45" s="11"/>
+      <c r="BU45" s="11"/>
+      <c r="BV45" s="11"/>
+      <c r="BW45" s="11"/>
+      <c r="BX45" s="11"/>
+      <c r="BY45" s="11"/>
+      <c r="BZ45" s="11"/>
+      <c r="CA45" s="11"/>
+      <c r="CB45" s="11"/>
+      <c r="CC45" s="11"/>
+      <c r="CD45" s="11"/>
+      <c r="CE45" s="11"/>
+      <c r="CF45" s="11"/>
+      <c r="CG45" s="11"/>
     </row>
-    <row r="46" spans="1:64" ht="30" customHeight="1">
-      <c r="B46" s="53" t="s">
+    <row r="46" spans="1:85" ht="30" customHeight="1">
+      <c r="B46" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="50">
+      <c r="D46" s="47">
         <v>1</v>
       </c>
-      <c r="E46" s="54">
+      <c r="E46" s="51">
         <v>45368</v>
       </c>
-      <c r="F46" s="54">
+      <c r="F46" s="51">
         <v>45396</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>29</v>
       </c>
       <c r="I46" s="11"/>
@@ -6044,26 +7264,47 @@
       <c r="BJ46" s="11"/>
       <c r="BK46" s="11"/>
       <c r="BL46" s="11"/>
+      <c r="BM46" s="11"/>
+      <c r="BN46" s="11"/>
+      <c r="BO46" s="11"/>
+      <c r="BP46" s="11"/>
+      <c r="BQ46" s="11"/>
+      <c r="BR46" s="11"/>
+      <c r="BS46" s="11"/>
+      <c r="BT46" s="11"/>
+      <c r="BU46" s="11"/>
+      <c r="BV46" s="11"/>
+      <c r="BW46" s="11"/>
+      <c r="BX46" s="11"/>
+      <c r="BY46" s="11"/>
+      <c r="BZ46" s="11"/>
+      <c r="CA46" s="11"/>
+      <c r="CB46" s="11"/>
+      <c r="CC46" s="11"/>
+      <c r="CD46" s="11"/>
+      <c r="CE46" s="11"/>
+      <c r="CF46" s="11"/>
+      <c r="CG46" s="11"/>
     </row>
-    <row r="47" spans="1:64" ht="30" customHeight="1">
-      <c r="B47" s="53" t="s">
+    <row r="47" spans="1:85" ht="30" customHeight="1">
+      <c r="B47" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="50">
+      <c r="D47" s="47">
         <v>1</v>
       </c>
-      <c r="E47" s="54">
+      <c r="E47" s="51">
         <v>45368</v>
       </c>
-      <c r="F47" s="54">
+      <c r="F47" s="51">
         <v>45396</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>29</v>
       </c>
       <c r="I47" s="11"/>
@@ -6122,26 +7363,47 @@
       <c r="BJ47" s="11"/>
       <c r="BK47" s="11"/>
       <c r="BL47" s="11"/>
+      <c r="BM47" s="11"/>
+      <c r="BN47" s="11"/>
+      <c r="BO47" s="11"/>
+      <c r="BP47" s="11"/>
+      <c r="BQ47" s="11"/>
+      <c r="BR47" s="11"/>
+      <c r="BS47" s="11"/>
+      <c r="BT47" s="11"/>
+      <c r="BU47" s="11"/>
+      <c r="BV47" s="11"/>
+      <c r="BW47" s="11"/>
+      <c r="BX47" s="11"/>
+      <c r="BY47" s="11"/>
+      <c r="BZ47" s="11"/>
+      <c r="CA47" s="11"/>
+      <c r="CB47" s="11"/>
+      <c r="CC47" s="11"/>
+      <c r="CD47" s="11"/>
+      <c r="CE47" s="11"/>
+      <c r="CF47" s="11"/>
+      <c r="CG47" s="11"/>
     </row>
-    <row r="48" spans="1:64" ht="30" customHeight="1">
-      <c r="B48" s="53" t="s">
+    <row r="48" spans="1:85" ht="30" customHeight="1">
+      <c r="B48" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="50">
+      <c r="D48" s="47">
         <v>1</v>
       </c>
-      <c r="E48" s="54">
+      <c r="E48" s="51">
         <v>45368</v>
       </c>
-      <c r="F48" s="54">
+      <c r="F48" s="51">
         <v>45396</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>29</v>
       </c>
       <c r="I48" s="11"/>
@@ -6200,26 +7462,47 @@
       <c r="BJ48" s="11"/>
       <c r="BK48" s="11"/>
       <c r="BL48" s="11"/>
+      <c r="BM48" s="11"/>
+      <c r="BN48" s="11"/>
+      <c r="BO48" s="11"/>
+      <c r="BP48" s="11"/>
+      <c r="BQ48" s="11"/>
+      <c r="BR48" s="11"/>
+      <c r="BS48" s="11"/>
+      <c r="BT48" s="11"/>
+      <c r="BU48" s="11"/>
+      <c r="BV48" s="11"/>
+      <c r="BW48" s="11"/>
+      <c r="BX48" s="11"/>
+      <c r="BY48" s="11"/>
+      <c r="BZ48" s="11"/>
+      <c r="CA48" s="11"/>
+      <c r="CB48" s="11"/>
+      <c r="CC48" s="11"/>
+      <c r="CD48" s="11"/>
+      <c r="CE48" s="11"/>
+      <c r="CF48" s="11"/>
+      <c r="CG48" s="11"/>
     </row>
-    <row r="49" spans="2:64" ht="30" customHeight="1">
-      <c r="B49" s="53" t="s">
+    <row r="49" spans="2:85" ht="30" customHeight="1">
+      <c r="B49" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="50">
+      <c r="D49" s="47">
         <v>1</v>
       </c>
-      <c r="E49" s="54">
+      <c r="E49" s="51">
         <v>45368</v>
       </c>
-      <c r="F49" s="54">
+      <c r="F49" s="51">
         <v>45396</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>29</v>
       </c>
       <c r="I49" s="11"/>
@@ -6278,26 +7561,47 @@
       <c r="BJ49" s="11"/>
       <c r="BK49" s="11"/>
       <c r="BL49" s="11"/>
+      <c r="BM49" s="11"/>
+      <c r="BN49" s="11"/>
+      <c r="BO49" s="11"/>
+      <c r="BP49" s="11"/>
+      <c r="BQ49" s="11"/>
+      <c r="BR49" s="11"/>
+      <c r="BS49" s="11"/>
+      <c r="BT49" s="11"/>
+      <c r="BU49" s="11"/>
+      <c r="BV49" s="11"/>
+      <c r="BW49" s="11"/>
+      <c r="BX49" s="11"/>
+      <c r="BY49" s="11"/>
+      <c r="BZ49" s="11"/>
+      <c r="CA49" s="11"/>
+      <c r="CB49" s="11"/>
+      <c r="CC49" s="11"/>
+      <c r="CD49" s="11"/>
+      <c r="CE49" s="11"/>
+      <c r="CF49" s="11"/>
+      <c r="CG49" s="11"/>
     </row>
-    <row r="50" spans="2:64" ht="30" customHeight="1">
-      <c r="B50" s="53" t="s">
+    <row r="50" spans="2:85" ht="30" customHeight="1">
+      <c r="B50" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="50">
+      <c r="D50" s="47">
         <v>1</v>
       </c>
-      <c r="E50" s="54">
+      <c r="E50" s="51">
         <v>45368</v>
       </c>
-      <c r="F50" s="54">
+      <c r="F50" s="51">
         <v>45396</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>29</v>
       </c>
       <c r="I50" s="11"/>
@@ -6356,26 +7660,47 @@
       <c r="BJ50" s="11"/>
       <c r="BK50" s="11"/>
       <c r="BL50" s="11"/>
+      <c r="BM50" s="11"/>
+      <c r="BN50" s="11"/>
+      <c r="BO50" s="11"/>
+      <c r="BP50" s="11"/>
+      <c r="BQ50" s="11"/>
+      <c r="BR50" s="11"/>
+      <c r="BS50" s="11"/>
+      <c r="BT50" s="11"/>
+      <c r="BU50" s="11"/>
+      <c r="BV50" s="11"/>
+      <c r="BW50" s="11"/>
+      <c r="BX50" s="11"/>
+      <c r="BY50" s="11"/>
+      <c r="BZ50" s="11"/>
+      <c r="CA50" s="11"/>
+      <c r="CB50" s="11"/>
+      <c r="CC50" s="11"/>
+      <c r="CD50" s="11"/>
+      <c r="CE50" s="11"/>
+      <c r="CF50" s="11"/>
+      <c r="CG50" s="11"/>
     </row>
-    <row r="51" spans="2:64" ht="30" customHeight="1">
-      <c r="B51" s="53" t="s">
+    <row r="51" spans="2:85" ht="30" customHeight="1">
+      <c r="B51" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="50">
+      <c r="D51" s="47">
         <v>1</v>
       </c>
-      <c r="E51" s="54">
+      <c r="E51" s="51">
         <v>45368</v>
       </c>
-      <c r="F51" s="54">
+      <c r="F51" s="51">
         <v>45396</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="22"/>
         <v>29</v>
       </c>
       <c r="I51" s="11"/>
@@ -6434,9 +7759,322 @@
       <c r="BJ51" s="11"/>
       <c r="BK51" s="11"/>
       <c r="BL51" s="11"/>
+      <c r="BM51" s="11"/>
+      <c r="BN51" s="11"/>
+      <c r="BO51" s="11"/>
+      <c r="BP51" s="11"/>
+      <c r="BQ51" s="11"/>
+      <c r="BR51" s="11"/>
+      <c r="BS51" s="11"/>
+      <c r="BT51" s="11"/>
+      <c r="BU51" s="11"/>
+      <c r="BV51" s="11"/>
+      <c r="BW51" s="11"/>
+      <c r="BX51" s="11"/>
+      <c r="BY51" s="11"/>
+      <c r="BZ51" s="11"/>
+      <c r="CA51" s="11"/>
+      <c r="CB51" s="11"/>
+      <c r="CC51" s="11"/>
+      <c r="CD51" s="11"/>
+      <c r="CE51" s="11"/>
+      <c r="CF51" s="11"/>
+      <c r="CG51" s="11"/>
+    </row>
+    <row r="52" spans="2:85" ht="30" customHeight="1">
+      <c r="B52" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="57"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11"/>
+      <c r="AF52" s="11"/>
+      <c r="AG52" s="11"/>
+      <c r="AH52" s="11"/>
+      <c r="AI52" s="11"/>
+      <c r="AJ52" s="11"/>
+      <c r="AK52" s="11"/>
+      <c r="AL52" s="11"/>
+      <c r="AM52" s="11"/>
+      <c r="AN52" s="11"/>
+      <c r="AO52" s="11"/>
+      <c r="AP52" s="11"/>
+      <c r="AQ52" s="11"/>
+      <c r="AR52" s="11"/>
+      <c r="AS52" s="11"/>
+      <c r="AT52" s="11"/>
+      <c r="AU52" s="11"/>
+      <c r="AV52" s="11"/>
+      <c r="AW52" s="11"/>
+      <c r="AX52" s="11"/>
+      <c r="AY52" s="11"/>
+      <c r="AZ52" s="11"/>
+      <c r="BA52" s="11"/>
+      <c r="BB52" s="11"/>
+      <c r="BC52" s="11"/>
+      <c r="BD52" s="11"/>
+      <c r="BE52" s="11"/>
+      <c r="BF52" s="11"/>
+      <c r="BG52" s="11"/>
+      <c r="BH52" s="11"/>
+      <c r="BI52" s="11"/>
+      <c r="BJ52" s="11"/>
+      <c r="BK52" s="11"/>
+      <c r="BL52" s="11"/>
+      <c r="BM52" s="11"/>
+      <c r="BN52" s="11"/>
+      <c r="BO52" s="11"/>
+      <c r="BP52" s="11"/>
+      <c r="BQ52" s="11"/>
+      <c r="BR52" s="11"/>
+      <c r="BS52" s="11"/>
+      <c r="BT52" s="11"/>
+      <c r="BU52" s="11"/>
+      <c r="BV52" s="11"/>
+      <c r="BW52" s="11"/>
+      <c r="BX52" s="11"/>
+      <c r="BY52" s="11"/>
+      <c r="BZ52" s="11"/>
+      <c r="CA52" s="11"/>
+      <c r="CB52" s="11"/>
+      <c r="CC52" s="11"/>
+      <c r="CD52" s="11"/>
+      <c r="CE52" s="11"/>
+      <c r="CF52" s="11"/>
+      <c r="CG52" s="11"/>
+    </row>
+    <row r="53" spans="2:85" ht="30" customHeight="1">
+      <c r="B53" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="58">
+        <v>1</v>
+      </c>
+      <c r="E53" s="59">
+        <v>45401</v>
+      </c>
+      <c r="F53" s="60">
+        <v>45412</v>
+      </c>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10">
+        <f t="shared" ca="1" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="11"/>
+      <c r="AL53" s="11"/>
+      <c r="AM53" s="11"/>
+      <c r="AN53" s="11"/>
+      <c r="AO53" s="11"/>
+      <c r="AP53" s="11"/>
+      <c r="AQ53" s="11"/>
+      <c r="AR53" s="11"/>
+      <c r="AS53" s="11"/>
+      <c r="AT53" s="11"/>
+      <c r="AU53" s="11"/>
+      <c r="AV53" s="11"/>
+      <c r="AW53" s="11"/>
+      <c r="AX53" s="11"/>
+      <c r="AY53" s="11"/>
+      <c r="AZ53" s="11"/>
+      <c r="BA53" s="11"/>
+      <c r="BB53" s="11"/>
+      <c r="BC53" s="11"/>
+      <c r="BD53" s="11"/>
+      <c r="BE53" s="11"/>
+      <c r="BF53" s="11"/>
+      <c r="BG53" s="11"/>
+      <c r="BH53" s="11"/>
+      <c r="BI53" s="11"/>
+      <c r="BJ53" s="11"/>
+      <c r="BK53" s="11"/>
+      <c r="BL53" s="11"/>
+      <c r="BM53" s="11"/>
+      <c r="BN53" s="11"/>
+      <c r="BO53" s="11"/>
+      <c r="BP53" s="11"/>
+      <c r="BQ53" s="11"/>
+      <c r="BR53" s="11"/>
+      <c r="BS53" s="11"/>
+      <c r="BT53" s="11"/>
+      <c r="BU53" s="11"/>
+      <c r="BV53" s="11"/>
+      <c r="BW53" s="11"/>
+      <c r="BX53" s="11"/>
+      <c r="BY53" s="11"/>
+      <c r="BZ53" s="11"/>
+      <c r="CA53" s="11"/>
+      <c r="CB53" s="11"/>
+      <c r="CC53" s="11"/>
+      <c r="CD53" s="11"/>
+      <c r="CE53" s="11"/>
+      <c r="CF53" s="11"/>
+      <c r="CG53" s="11"/>
+    </row>
+    <row r="54" spans="2:85" ht="30" customHeight="1">
+      <c r="B54" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="58">
+        <v>1</v>
+      </c>
+      <c r="E54" s="59">
+        <v>45401</v>
+      </c>
+      <c r="F54" s="60">
+        <v>45412</v>
+      </c>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10">
+        <f t="shared" ca="1" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="11"/>
+      <c r="AF54" s="11"/>
+      <c r="AG54" s="11"/>
+      <c r="AH54" s="11"/>
+      <c r="AI54" s="11"/>
+      <c r="AJ54" s="11"/>
+      <c r="AK54" s="11"/>
+      <c r="AL54" s="11"/>
+      <c r="AM54" s="11"/>
+      <c r="AN54" s="11"/>
+      <c r="AO54" s="11"/>
+      <c r="AP54" s="11"/>
+      <c r="AQ54" s="11"/>
+      <c r="AR54" s="11"/>
+      <c r="AS54" s="11"/>
+      <c r="AT54" s="11"/>
+      <c r="AU54" s="11"/>
+      <c r="AV54" s="11"/>
+      <c r="AW54" s="11"/>
+      <c r="AX54" s="11"/>
+      <c r="AY54" s="11"/>
+      <c r="AZ54" s="11"/>
+      <c r="BA54" s="11"/>
+      <c r="BB54" s="11"/>
+      <c r="BC54" s="11"/>
+      <c r="BD54" s="11"/>
+      <c r="BE54" s="11"/>
+      <c r="BF54" s="11"/>
+      <c r="BG54" s="11"/>
+      <c r="BH54" s="11"/>
+      <c r="BI54" s="11"/>
+      <c r="BJ54" s="11"/>
+      <c r="BK54" s="11"/>
+      <c r="BL54" s="11"/>
+      <c r="BM54" s="11"/>
+      <c r="BN54" s="11"/>
+      <c r="BO54" s="11"/>
+      <c r="BP54" s="11"/>
+      <c r="BQ54" s="11"/>
+      <c r="BR54" s="11"/>
+      <c r="BS54" s="11"/>
+      <c r="BT54" s="11"/>
+      <c r="BU54" s="11"/>
+      <c r="BV54" s="11"/>
+      <c r="BW54" s="11"/>
+      <c r="BX54" s="11"/>
+      <c r="BY54" s="11"/>
+      <c r="BZ54" s="11"/>
+      <c r="CA54" s="11"/>
+      <c r="CB54" s="11"/>
+      <c r="CC54" s="11"/>
+      <c r="CD54" s="11"/>
+      <c r="CE54" s="11"/>
+      <c r="CF54" s="11"/>
+      <c r="CG54" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
@@ -6449,8 +8087,8 @@
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D51">
-    <cfRule type="dataBar" priority="74">
+  <conditionalFormatting sqref="D7:D54">
+    <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6464,24 +8102,89 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL29">
-    <cfRule type="expression" dxfId="59" priority="93">
+    <cfRule type="expression" dxfId="74" priority="111">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL29">
-    <cfRule type="expression" dxfId="58" priority="87">
+    <cfRule type="expression" dxfId="73" priority="105">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="106" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL30">
+  <conditionalFormatting sqref="I30:CG30">
+    <cfRule type="expression" dxfId="71" priority="78">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:CG30">
+    <cfRule type="expression" dxfId="70" priority="76">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="77" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:CG31">
+    <cfRule type="expression" dxfId="68" priority="75">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:CG31">
+    <cfRule type="expression" dxfId="67" priority="73">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="74" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:CG32">
+    <cfRule type="expression" dxfId="65" priority="72">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:CG32">
+    <cfRule type="expression" dxfId="64" priority="70">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="71" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:CG33">
+    <cfRule type="expression" dxfId="62" priority="69">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:CG33">
+    <cfRule type="expression" dxfId="61" priority="67">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="68" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:CG34">
+    <cfRule type="expression" dxfId="59" priority="63">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:CG34">
+    <cfRule type="expression" dxfId="58" priority="61">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="62" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:CG35">
     <cfRule type="expression" dxfId="56" priority="60">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL30">
+  <conditionalFormatting sqref="I35:CG35">
     <cfRule type="expression" dxfId="55" priority="58">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -6489,12 +8192,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
+  <conditionalFormatting sqref="I36:CG36">
     <cfRule type="expression" dxfId="53" priority="57">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
+  <conditionalFormatting sqref="I36:CG36">
     <cfRule type="expression" dxfId="52" priority="55">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -6502,12 +8205,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
+  <conditionalFormatting sqref="I37:BL40">
     <cfRule type="expression" dxfId="50" priority="54">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
+  <conditionalFormatting sqref="I37:BL40">
     <cfRule type="expression" dxfId="49" priority="52">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -6515,12 +8218,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
+  <conditionalFormatting sqref="I41:CG41">
     <cfRule type="expression" dxfId="47" priority="51">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
+  <conditionalFormatting sqref="I41:CG41">
     <cfRule type="expression" dxfId="46" priority="49">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -6528,198 +8231,198 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="44" priority="45">
+  <conditionalFormatting sqref="I42:CG42">
+    <cfRule type="expression" dxfId="44" priority="48">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="43" priority="43">
+  <conditionalFormatting sqref="I42:CG42">
+    <cfRule type="expression" dxfId="43" priority="46">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="47" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="41" priority="42">
+  <conditionalFormatting sqref="I43:CG43">
+    <cfRule type="expression" dxfId="41" priority="45">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="40" priority="40">
+  <conditionalFormatting sqref="I43:CG43">
+    <cfRule type="expression" dxfId="40" priority="43">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="44" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="38" priority="39">
+  <conditionalFormatting sqref="I44:CG44">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="37" priority="37">
+  <conditionalFormatting sqref="I44:CG44">
+    <cfRule type="expression" dxfId="37" priority="40">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="41" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL40">
-    <cfRule type="expression" dxfId="35" priority="36">
+  <conditionalFormatting sqref="I45:CG45">
+    <cfRule type="expression" dxfId="35" priority="39">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL40">
-    <cfRule type="expression" dxfId="34" priority="34">
+  <conditionalFormatting sqref="I45:CG45">
+    <cfRule type="expression" dxfId="34" priority="37">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="38" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="32" priority="33">
+  <conditionalFormatting sqref="I46:CG46">
+    <cfRule type="expression" dxfId="32" priority="36">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="31" priority="31">
+  <conditionalFormatting sqref="I46:CG46">
+    <cfRule type="expression" dxfId="31" priority="34">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="35" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="29" priority="30">
+  <conditionalFormatting sqref="I47:CG47">
+    <cfRule type="expression" dxfId="29" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="28" priority="28">
+  <conditionalFormatting sqref="I47:CG47">
+    <cfRule type="expression" dxfId="28" priority="31">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="32" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="26" priority="27">
+  <conditionalFormatting sqref="I48:CG48">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="25" priority="25">
+  <conditionalFormatting sqref="I48:CG48">
+    <cfRule type="expression" dxfId="25" priority="28">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="29" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="23" priority="24">
+  <conditionalFormatting sqref="I49:CG49">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="22" priority="22">
+  <conditionalFormatting sqref="I49:CG49">
+    <cfRule type="expression" dxfId="22" priority="25">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="26" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="20" priority="21">
+  <conditionalFormatting sqref="I50:CG50">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="19" priority="19">
+  <conditionalFormatting sqref="I50:CG50">
+    <cfRule type="expression" dxfId="19" priority="22">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="17" priority="18">
+  <conditionalFormatting sqref="I51:CG51">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="16" priority="16">
+  <conditionalFormatting sqref="I51:CG51">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="14" priority="15">
+  <conditionalFormatting sqref="BM5:CG29">
+    <cfRule type="expression" dxfId="14" priority="18">
+      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM7:CG29">
+    <cfRule type="expression" dxfId="13" priority="16">
+      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="17" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM37:CG40">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM37:CG40">
+    <cfRule type="expression" dxfId="10" priority="13">
+      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="14" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:CG52">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="13" priority="13">
+  <conditionalFormatting sqref="I52:CG52">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="11" priority="12">
+  <conditionalFormatting sqref="I53:CG53">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="10" priority="10">
+  <conditionalFormatting sqref="I53:CG53">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="8" priority="9">
+  <conditionalFormatting sqref="I54:CG54">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="7" priority="7">
+  <conditionalFormatting sqref="I54:CG54">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6750,7 +8453,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D51</xm:sqref>
+          <xm:sqref>D7:D54</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6759,6 +8462,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7046,43 +8778,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}"/>
 </file>